--- a/Result/Performance/performance_resampled.xlsx
+++ b/Result/Performance/performance_resampled.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,29 +521,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81/509</t>
+          <t>73/509</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="H2" t="n">
-        <v>0.905</v>
+        <v>0.916</v>
       </c>
       <c r="I2" t="n">
-        <v>0.677</v>
+        <v>0.697</v>
       </c>
       <c r="J2" t="n">
-        <v>0.853</v>
+        <v>0.869</v>
       </c>
       <c r="K2" t="n">
-        <v>0.791</v>
+        <v>0.806</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7703947368421052</v>
+        <v>0.7772642390289449</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -572,29 +572,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88/509</t>
+          <t>98/509</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.9081632653061225</v>
       </c>
       <c r="G3" t="n">
-        <v>0.624</v>
+        <v>0.712</v>
       </c>
       <c r="H3" t="n">
-        <v>0.898</v>
+        <v>0.916</v>
       </c>
       <c r="I3" t="n">
-        <v>0.732</v>
+        <v>0.798</v>
       </c>
       <c r="J3" t="n">
-        <v>0.852</v>
+        <v>0.881</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7928429118773946</v>
+        <v>0.8382134387351778</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -623,29 +623,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96/509</t>
+          <t>99/509</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G4" t="n">
         <v>0.6716417910447762</v>
       </c>
       <c r="H4" t="n">
-        <v>0.91</v>
+        <v>0.904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.783</v>
+        <v>0.773</v>
       </c>
       <c r="J4" t="n">
-        <v>0.872</v>
+        <v>0.865</v>
       </c>
       <c r="K4" t="n">
-        <v>0.846</v>
+        <v>0.838</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8241929885456438</v>
+        <v>0.8183790350572718</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -674,29 +674,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>119/509</t>
+          <t>109/509</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8256880733944955</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6415094339622641</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="H5" t="n">
-        <v>0.866</v>
+        <v>0.845</v>
       </c>
       <c r="I5" t="n">
-        <v>0.734</v>
+        <v>0.672</v>
       </c>
       <c r="J5" t="n">
-        <v>0.822</v>
+        <v>0.789</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8</v>
+        <v>0.758</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7876807870200426</v>
+        <v>0.7463393312449916</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -725,29 +725,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>145/509</t>
+          <t>156/509</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.896551724137931</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8024691358024691</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.91</v>
+        <v>0.907</v>
       </c>
       <c r="I6" t="n">
-        <v>0.847</v>
+        <v>0.849</v>
       </c>
       <c r="J6" t="n">
-        <v>0.887</v>
+        <v>0.885</v>
       </c>
       <c r="K6" t="n">
-        <v>0.879</v>
+        <v>0.878</v>
       </c>
       <c r="L6" t="n">
-        <v>0.871590299126531</v>
+        <v>0.8753280839895013</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -776,29 +776,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>136/509</t>
+          <t>142/509</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.9225352112676056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7515151515151515</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="H7" t="n">
-        <v>0.885</v>
+        <v>0.9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.824</v>
+        <v>0.853</v>
       </c>
       <c r="J7" t="n">
-        <v>0.861</v>
+        <v>0.881</v>
       </c>
       <c r="K7" t="n">
-        <v>0.854</v>
+        <v>0.877</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8479797979797979</v>
+        <v>0.8711481007255655</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -827,29 +827,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>189/509</t>
+          <t>198/509</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8306878306878307</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8579234972677595</v>
+        <v>0.8415300546448088</v>
       </c>
       <c r="H8" t="n">
-        <v>0.823</v>
+        <v>0.767</v>
       </c>
       <c r="I8" t="n">
-        <v>0.844</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.834</v>
+        <v>0.79</v>
       </c>
       <c r="K8" t="n">
-        <v>0.834</v>
+        <v>0.788</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8331533654003469</v>
+        <v>0.7866186858589898</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -878,29 +878,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>172/509</t>
+          <t>174/509</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9186046511627907</v>
+        <v>0.8908045977011494</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8359788359788359</v>
+        <v>0.8201058201058201</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9</v>
+        <v>0.882</v>
       </c>
       <c r="I9" t="n">
-        <v>0.875</v>
+        <v>0.854</v>
       </c>
       <c r="J9" t="n">
-        <v>0.889</v>
+        <v>0.87</v>
       </c>
       <c r="K9" t="n">
-        <v>0.888</v>
+        <v>0.868</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8857313534732889</v>
+        <v>0.8664749284015338</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -929,29 +929,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>201/509</t>
+          <t>196/509</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8159203980099502</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.841025641025641</v>
+        <v>0.8102564102564103</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.795</v>
       </c>
       <c r="I10" t="n">
-        <v>0.828</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>0.822</v>
+        <v>0.802</v>
       </c>
       <c r="K10" t="n">
-        <v>0.822</v>
+        <v>0.801</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8221085651936716</v>
+        <v>0.8013030685161833</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -975,34 +975,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>198/509</t>
+          <t>199/509</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>190/509</t>
+          <t>182/509</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.8241758241758241</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7626262626262627</v>
+        <v>0.7537688442211056</v>
       </c>
       <c r="H11" t="n">
-        <v>0.785</v>
+        <v>0.802</v>
       </c>
       <c r="I11" t="n">
-        <v>0.778</v>
+        <v>0.787</v>
       </c>
       <c r="J11" t="n">
-        <v>0.782</v>
+        <v>0.795</v>
       </c>
       <c r="K11" t="n">
-        <v>0.782</v>
+        <v>0.795</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7818233353947639</v>
+        <v>0.7952517690493284</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1026,34 +1026,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>209/509</t>
+          <t>203/509</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>196/509</t>
+          <t>188/509</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8724489795918368</v>
+        <v>0.898936170212766</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8325123152709359</v>
       </c>
       <c r="H12" t="n">
-        <v>0.838</v>
+        <v>0.864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.844</v>
+        <v>0.864</v>
       </c>
       <c r="J12" t="n">
-        <v>0.841</v>
+        <v>0.864</v>
       </c>
       <c r="K12" t="n">
-        <v>0.841</v>
+        <v>0.864</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8426015473887815</v>
+        <v>0.865724242741851</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1077,34 +1077,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>236/509</t>
+          <t>237/509</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>254/509</t>
+          <t>245/509</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7755905511811023</v>
+        <v>0.8122448979591836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8347457627118644</v>
+        <v>0.8396624472573839</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.738</v>
       </c>
       <c r="I13" t="n">
-        <v>0.804</v>
+        <v>0.826</v>
       </c>
       <c r="J13" t="n">
-        <v>0.76</v>
+        <v>0.791</v>
       </c>
       <c r="K13" t="n">
-        <v>0.747</v>
+        <v>0.782</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7435923935510542</v>
+        <v>0.7795873211896676</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1128,34 +1128,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>256/509</t>
+          <t>257/509</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>313/509</t>
+          <t>311/509</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7763578274760383</v>
+        <v>0.7813504823151125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.94921875</v>
+        <v>0.9455252918287937</v>
       </c>
       <c r="H14" t="n">
-        <v>0.641</v>
+        <v>0.65</v>
       </c>
       <c r="I14" t="n">
-        <v>0.854</v>
+        <v>0.856</v>
       </c>
       <c r="J14" t="n">
-        <v>0.792</v>
+        <v>0.796</v>
       </c>
       <c r="K14" t="n">
-        <v>0.747</v>
+        <v>0.753</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7315538194444444</v>
+        <v>0.7366515348032858</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
